--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Themen" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Wochenüberblick" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="Themen" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="Wochenüberblick (alt Formeln)" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Wochenüberblick (neu Werte)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miOe/mCRBr8+g/VVMlSkTTzknUx4w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mggHK8JJ6gxh28LK1bFBqHfx/0MEQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="192">
   <si>
     <t>Thema</t>
   </si>
@@ -76,6 +77,9 @@
     <t>Git2: Basics</t>
   </si>
   <si>
+    <t>Sheet01</t>
+  </si>
+  <si>
     <t>Git3: Branches</t>
   </si>
   <si>
@@ -97,10 +101,16 @@
     <t>Factory- (Method-) Pattern</t>
   </si>
   <si>
+    <t>Sheet02</t>
+  </si>
+  <si>
     <t>2.2 Einfache Monster, (4.1 HUD?)</t>
   </si>
   <si>
     <t>Visitor-Pattern</t>
+  </si>
+  <si>
+    <t>Sheet09</t>
   </si>
   <si>
     <t>5.1 Quests</t>
@@ -109,10 +119,16 @@
     <t>Observer-Pattern</t>
   </si>
   <si>
+    <t>Sheet06</t>
+  </si>
+  <si>
     <t>4.2 Erfahrung und Skills, 5.1 Quests,</t>
   </si>
   <si>
     <t>Strategy-Pattern</t>
+  </si>
+  <si>
+    <t>Sheet03</t>
   </si>
   <si>
     <t>6.2 Schlaue Monster</t>
@@ -124,7 +140,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>Lexer/Editor</t>
+    <t>Sheet07: Lexer/Editor</t>
   </si>
   <si>
     <t>Charakterklassen ?</t>
@@ -145,10 +161,16 @@
     <t>JUnit1: Basics</t>
   </si>
   <si>
+    <t>Sheet04</t>
+  </si>
+  <si>
     <t>JUnit2: Testfall-Ermittlung</t>
   </si>
   <si>
     <t>Mockito: Mocking</t>
+  </si>
+  <si>
+    <t>Sheet05</t>
   </si>
   <si>
     <t>Coding</t>
@@ -178,7 +200,7 @@
     <t>Generics1: Klassen &amp; Methoden</t>
   </si>
   <si>
-    <t>Bundesliga</t>
+    <t>Sheet03: Bundesliga</t>
   </si>
   <si>
     <t>3.x Items/Inventar/Taschen</t>
@@ -188,6 +210,9 @@
   </si>
   <si>
     <t>Generics3: Type Erasure</t>
+  </si>
+  <si>
+    <t>Sheet04: Bundesliga</t>
   </si>
   <si>
     <t>3.x Items/Inventar/Taschen(?)</t>
@@ -200,6 +225,9 @@
   </si>
   <si>
     <t>Defaultmethoden</t>
+  </si>
+  <si>
+    <t>Sheet08</t>
   </si>
   <si>
     <t>Im Framework</t>
@@ -232,13 +260,22 @@
     <t>RegExp</t>
   </si>
   <si>
+    <t>Sheet08: Lexer/Editor</t>
+  </si>
+  <si>
     <t>Configuration, JLink, JPackage</t>
   </si>
   <si>
     <t>Enumerationen</t>
   </si>
   <si>
+    <t>Sheet10</t>
+  </si>
+  <si>
     <t>Annotationen</t>
+  </si>
+  <si>
+    <t>Sheet07</t>
   </si>
   <si>
     <t>Reflection</t>
@@ -259,6 +296,9 @@
     <t>Swing</t>
   </si>
   <si>
+    <t>(Sheet07): Lexer/Editor</t>
+  </si>
+  <si>
     <t>Java2D</t>
   </si>
   <si>
@@ -266,6 +306,9 @@
   </si>
   <si>
     <t>Build1: ANT</t>
+  </si>
+  <si>
+    <t>(Sheet07)</t>
   </si>
   <si>
     <t>Build2: Maven</t>
@@ -370,6 +413,9 @@
     <t>Feiertage</t>
   </si>
   <si>
+    <t>Konzeptübungen (Abgabe)</t>
+  </si>
+  <si>
     <t>Bemerkung</t>
   </si>
   <si>
@@ -386,6 +432,9 @@
 (Fr)</t>
   </si>
   <si>
+    <t>S1</t>
+  </si>
+  <si>
     <t>P1: Konzeptübungen zu Git (Basics, Branches, Remotes); Dungeon-Basics</t>
   </si>
   <si>
@@ -396,10 +445,16 @@
 (Mo)</t>
   </si>
   <si>
+    <t>S2</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
   <si>
     <t>P3</t>
@@ -408,16 +463,25 @@
     <t>5</t>
   </si>
   <si>
+    <t>S4</t>
+  </si>
+  <si>
     <t>P4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>S5</t>
+  </si>
+  <si>
     <t>P5</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
   <si>
     <t>P6</t>
@@ -436,6 +500,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>S7</t>
+  </si>
+  <si>
     <t>Projekt 1a</t>
   </si>
   <si>
@@ -444,6 +511,9 @@
   <si>
     <t>Pfingstmontag
 (Mo)</t>
+  </si>
+  <si>
+    <t>S8</t>
   </si>
   <si>
     <t>Projekt 1b</t>
@@ -456,10 +526,16 @@
 (Do)</t>
   </si>
   <si>
+    <t>S9</t>
+  </si>
+  <si>
     <t>Projekt 2a</t>
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>S10</t>
   </si>
   <si>
     <t>Projekt 2b</t>
@@ -484,6 +560,45 @@
   </si>
   <si>
     <t>Praktikum: 65%, Theorie: 35%</t>
+  </si>
+  <si>
+    <t>Konzeptübungen (Abgaben)</t>
+  </si>
+  <si>
+    <t>Dungeon-Aufgaben (Abgaben)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P1: Git-Basics, Git-Branches</t>
+  </si>
+  <si>
+    <t>P2: Logging, Factory-Pattern</t>
+  </si>
+  <si>
+    <t>P3: Generics, Strategy-Pattern</t>
+  </si>
+  <si>
+    <t>P4: Junit-Basic, Junit-Advanced, Gradle</t>
+  </si>
+  <si>
+    <t>P5: Mocking, Bad Smells und Refactoring</t>
+  </si>
+  <si>
+    <t>P6: Type Object, Flyweight-Pattern, Observer-Pattern</t>
+  </si>
+  <si>
+    <t>P7: Template-Method-Pattern, Reflection, Annotations, Swing</t>
+  </si>
+  <si>
+    <t>P8: Funktionsinterfaces, Lambdas, Methodenreferenzen, RegExp, Defaultmethoden</t>
+  </si>
+  <si>
+    <t>P9: Stream-API, Visitor-Pattern, Optional, Command-Pattern</t>
+  </si>
+  <si>
+    <t>P10: Multithreading, Enumeration</t>
   </si>
 </sst>
 </file>
@@ -511,7 +626,10 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FFFF9900"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -660,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -715,6 +833,9 @@
     <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -748,10 +869,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -763,14 +887,8 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -780,6 +898,18 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,6 +985,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1325,7 +1459,9 @@
       <c r="G6" s="13">
         <v>3.0</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="16">
         <v>25.0</v>
@@ -1369,7 +1505,9 @@
       <c r="G7" s="16">
         <v>4.0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13">
         <v>25.0</v>
@@ -1445,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="16">
         <v>25.0</v>
@@ -1489,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13">
         <v>25.0</v>
@@ -1533,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13">
         <v>10.0</v>
@@ -1574,10 +1712,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="16">
         <v>10.0</v>
@@ -1589,9 +1727,11 @@
       <c r="G12" s="16">
         <v>5.0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="15"/>
@@ -1618,10 +1758,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="16">
         <v>10.0</v>
@@ -1633,9 +1773,11 @@
       <c r="G13" s="16">
         <v>4.0</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="15"/>
@@ -1662,10 +1804,10 @@
         <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="16">
         <v>10.0</v>
@@ -1677,9 +1819,11 @@
       <c r="G14" s="16">
         <v>6.0</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="15"/>
@@ -1706,10 +1850,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" s="16">
         <v>10.0</v>
@@ -1721,9 +1865,11 @@
       <c r="G15" s="16">
         <v>5.0</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="15"/>
@@ -1750,16 +1896,16 @@
         <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16" s="13">
         <v>15.0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F16" s="16">
         <v>7.0</v>
@@ -1767,11 +1913,11 @@
       <c r="G16" s="16">
         <v>3.0</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>35</v>
+      <c r="H16" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15"/>
@@ -1798,16 +1944,16 @@
         <v>105</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D17" s="16">
         <v>10.0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" s="16">
         <v>10.0</v>
@@ -1815,7 +1961,9 @@
       <c r="G17" s="16">
         <v>5.0</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="15"/>
@@ -1842,16 +1990,16 @@
         <v>64</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D18" s="16">
         <v>10.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F18" s="16">
         <v>6.0</v>
@@ -1859,7 +2007,9 @@
       <c r="G18" s="16">
         <v>4.0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="15"/>
@@ -1886,16 +2036,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D19" s="16">
         <v>10.0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F19" s="16">
         <v>6.0</v>
@@ -1903,7 +2053,9 @@
       <c r="G19" s="16">
         <v>5.0</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="15"/>
@@ -1930,10 +2082,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D20" s="16">
         <v>20.0</v>
@@ -1945,7 +2097,9 @@
       <c r="G20" s="16">
         <v>3.0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="I20" s="14" t="s">
         <v>17</v>
       </c>
@@ -1974,10 +2128,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D21" s="16">
         <v>20.0</v>
@@ -1989,7 +2143,9 @@
       <c r="G21" s="16">
         <v>4.0</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="I21" s="14" t="s">
         <v>17</v>
       </c>
@@ -2018,16 +2174,16 @@
         <v>53</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D22" s="13">
         <v>20.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F22" s="13">
         <v>5.0</v>
@@ -2035,7 +2191,9 @@
       <c r="G22" s="16">
         <v>3.0</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="I22" s="14" t="s">
         <v>17</v>
       </c>
@@ -2063,11 +2221,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>44</v>
+      <c r="B23" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D23" s="13">
         <v>15.0</v>
@@ -2079,7 +2237,9 @@
       <c r="G23" s="13">
         <v>3.0</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" s="14" t="s">
         <v>17</v>
       </c>
@@ -2107,17 +2267,17 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>44</v>
+      <c r="B24" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" s="13">
         <v>15.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F24" s="16">
         <v>1.0</v>
@@ -2153,17 +2313,17 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>44</v>
+      <c r="B25" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D25" s="13">
         <v>10.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F25" s="13">
         <v>2.0</v>
@@ -2199,11 +2359,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>44</v>
+      <c r="B26" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D26" s="13">
         <v>35.0</v>
@@ -2215,7 +2375,9 @@
       <c r="G26" s="16">
         <v>1.0</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="I26" s="14" t="s">
         <v>17</v>
       </c>
@@ -2243,11 +2405,11 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>44</v>
+      <c r="B27" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D27" s="13">
         <v>35.0</v>
@@ -2259,7 +2421,9 @@
       <c r="G27" s="16">
         <v>2.0</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="I27" s="14" t="s">
         <v>17</v>
       </c>
@@ -2287,11 +2451,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>44</v>
+      <c r="B28" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D28" s="16">
         <v>15.0</v>
@@ -2303,7 +2467,7 @@
       <c r="G28" s="16">
         <v>5.0</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="14"/>
       <c r="J28" s="13"/>
       <c r="K28" s="15"/>
@@ -2330,10 +2494,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D29" s="16">
         <v>20.0</v>
@@ -2345,11 +2509,11 @@
       <c r="G29" s="16">
         <v>1.0</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>53</v>
+      <c r="H29" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="15"/>
@@ -2376,10 +2540,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D30" s="13">
         <v>20.0</v>
@@ -2391,11 +2555,11 @@
       <c r="G30" s="16">
         <v>2.0</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>53</v>
+      <c r="H30" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="15"/>
@@ -2422,10 +2586,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D31" s="13">
         <v>20.0</v>
@@ -2437,11 +2601,11 @@
       <c r="G31" s="16">
         <v>3.0</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>53</v>
+      <c r="H31" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="15"/>
@@ -2468,10 +2632,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D32" s="13">
         <v>15.0</v>
@@ -2483,11 +2647,11 @@
       <c r="G32" s="16">
         <v>4.0</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>53</v>
+      <c r="H32" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="15"/>
@@ -2514,10 +2678,10 @@
         <v>93</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D33" s="13">
         <v>20.0</v>
@@ -2529,9 +2693,11 @@
       <c r="G33" s="16">
         <v>3.0</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I33" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="15"/>
@@ -2558,10 +2724,10 @@
         <v>91</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D34" s="13">
         <v>10.0</v>
@@ -2573,9 +2739,11 @@
       <c r="G34" s="13">
         <v>1.0</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I34" s="14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="15"/>
@@ -2602,10 +2770,10 @@
         <v>92</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D35" s="13">
         <v>25.0</v>
@@ -2617,9 +2785,11 @@
       <c r="G35" s="13">
         <v>2.0</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I35" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="15"/>
@@ -2646,16 +2816,16 @@
         <v>101</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D36" s="13">
         <v>30.0</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F36" s="16">
         <v>10.0</v>
@@ -2663,9 +2833,11 @@
       <c r="G36" s="13">
         <v>1.0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I36" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="15"/>
@@ -2692,16 +2864,16 @@
         <v>102</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D37" s="13">
         <v>20.0</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F37" s="16">
         <v>10.0</v>
@@ -2738,16 +2910,16 @@
         <v>103</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D38" s="13">
         <v>20.0</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F38" s="16">
         <v>10.0</v>
@@ -2755,7 +2927,9 @@
       <c r="G38" s="13">
         <v>3.0</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I38" s="14" t="s">
         <v>12</v>
       </c>
@@ -2783,11 +2957,11 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>69</v>
+      <c r="B39" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D39" s="13">
         <v>35.0</v>
@@ -2799,8 +2973,8 @@
       <c r="G39" s="16">
         <v>4.0</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>35</v>
+      <c r="H39" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>12</v>
@@ -2829,17 +3003,17 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>69</v>
+      <c r="B40" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D40" s="13">
         <v>25.0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F40" s="16">
         <v>12.0</v>
@@ -2875,11 +3049,11 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>69</v>
+      <c r="B41" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D41" s="16">
         <v>15.0</v>
@@ -2891,7 +3065,9 @@
       <c r="G41" s="16">
         <v>4.0</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="I41" s="14" t="s">
         <v>17</v>
       </c>
@@ -2919,11 +3095,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>69</v>
+      <c r="B42" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D42" s="13">
         <v>30.0</v>
@@ -2935,7 +3111,9 @@
       <c r="G42" s="16">
         <v>1.0</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="I42" s="14" t="s">
         <v>12</v>
       </c>
@@ -2963,11 +3141,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>69</v>
+      <c r="B43" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D43" s="13">
         <v>30.0</v>
@@ -2979,7 +3157,9 @@
       <c r="G43" s="16">
         <v>2.0</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="I43" s="14" t="s">
         <v>12</v>
       </c>
@@ -3007,17 +3187,17 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>69</v>
+      <c r="B44" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D44" s="16">
         <v>35.0</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F44" s="16">
         <v>6.0</v>
@@ -3053,17 +3233,17 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>69</v>
+      <c r="B45" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D45" s="13">
         <v>20.0</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F45" s="16">
         <v>6.0</v>
@@ -3073,7 +3253,7 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="15"/>
@@ -3099,17 +3279,17 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>77</v>
+      <c r="B46" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="13">
         <v>15.0</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F46" s="16">
         <v>11.0</v>
@@ -3143,26 +3323,26 @@
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="13">
         <v>20.0</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="16">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G47" s="16">
         <v>3.0</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>35</v>
+      <c r="H47" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>12</v>
@@ -3189,20 +3369,20 @@
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D48" s="13">
         <v>20.0</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="16">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" s="16">
         <v>4.0</v>
@@ -3233,25 +3413,27 @@
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D49" s="16">
         <v>20.0</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="16">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G49" s="16">
         <v>2.0</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="I49" s="14" t="s">
         <v>12</v>
       </c>
@@ -3277,25 +3459,27 @@
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D50" s="13">
         <v>20.0</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="16">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G50" s="16">
         <v>3.0</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="I50" s="14" t="s">
         <v>12</v>
       </c>
@@ -3324,10 +3508,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D51" s="13">
         <v>15.0</v>
@@ -3339,9 +3523,11 @@
       <c r="G51" s="16">
         <v>1.0</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="I51" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="15"/>
@@ -3368,10 +3554,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D52" s="13">
         <v>20.0</v>
@@ -3409,20 +3595,20 @@
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D53" s="13">
         <v>20.0</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="16">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G53" s="16">
         <v>4.0</v>
@@ -3456,10 +3642,10 @@
         <v>111</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D54" s="13">
         <v>10.0</v>
@@ -3471,7 +3657,9 @@
       <c r="G54" s="13">
         <v>1.0</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="I54" s="14" t="s">
         <v>12</v>
       </c>
@@ -3500,10 +3688,10 @@
         <v>112</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D55" s="13">
         <v>25.0</v>
@@ -3515,7 +3703,9 @@
       <c r="G55" s="13">
         <v>2.0</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="I55" s="14" t="s">
         <v>12</v>
       </c>
@@ -3544,10 +3734,10 @@
         <v>113</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D56" s="16">
         <v>25.0</v>
@@ -3559,7 +3749,9 @@
       <c r="G56" s="13">
         <v>3.0</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="I56" s="14" t="s">
         <v>12</v>
       </c>
@@ -3588,16 +3780,16 @@
         <v>17</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D57" s="13">
         <v>20.0</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F57" s="16">
         <v>1.0</v>
@@ -3631,28 +3823,28 @@
     <row r="58" ht="31.5" customHeight="1">
       <c r="A58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D58" s="16">
         <v>25.0</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F58" s="16">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G58" s="16">
         <v>2.0</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="I58" s="22"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -3677,11 +3869,11 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>95</v>
+      <c r="B59" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D59" s="13">
         <v>45.0</v>
@@ -3694,8 +3886,8 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="22" t="s">
-        <v>97</v>
+      <c r="I59" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -3721,11 +3913,11 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>95</v>
+      <c r="B60" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D60" s="13">
         <v>45.0</v>
@@ -3738,7 +3930,7 @@
         <v>1.0</v>
       </c>
       <c r="H60" s="15"/>
-      <c r="I60" s="22"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -30548,1021 +30740,1060 @@
     <col customWidth="1" min="16" max="16" width="5.29"/>
     <col customWidth="1" min="19" max="19" width="6.14"/>
     <col customWidth="1" min="20" max="20" width="15.29"/>
-    <col customWidth="1" min="21" max="21" width="59.57"/>
+    <col customWidth="1" min="21" max="22" width="59.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>99</v>
+      <c r="A1" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="R1" s="3"/>
-      <c r="S1" s="24" t="s">
-        <v>115</v>
+      <c r="S1" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="26" t="str">
+      <c r="A2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Orga</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>40</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git1: Intro</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git2: Basics</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="H2" s="26" t="str">
+      <c r="H2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git3: Branches</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git4: Brachingstrategien</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="L2" s="26" t="str">
+      <c r="L2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v>Debugging</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="N2" s="26" t="str">
+      <c r="N2" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v>JDBC</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="29">
         <f t="shared" ref="Q2:Q16" si="1">sum(C2,E2,G2,I2,K2,M2,O2)</f>
         <v>170</v>
       </c>
-      <c r="S2" s="29">
+      <c r="S2" s="30">
         <v>14.0</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30" t="s">
-        <v>119</v>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="31" t="str">
+      <c r="A3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git5: Remotes</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D3" s="31" t="str">
+      <c r="D3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git6: Workflows</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F3" s="31" t="str">
+      <c r="F3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Logging</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="H3" s="31" t="str">
+      <c r="H3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Javadoc</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Factory- (Method-) Pattern</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L3" s="33" t="str">
+      <c r="L3" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M3" s="32" t="str">
+      <c r="M3" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N3" s="33" t="str">
+      <c r="N3" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O3" s="32" t="str">
+      <c r="O3" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="28">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="29">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="30">
         <v>15.0</v>
       </c>
-      <c r="T3" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>122</v>
+      <c r="T3" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="26" t="str">
+      <c r="A4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics1: Klassen &amp; Methoden</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics2: Bounds &amp; Wildcards</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F4" s="26" t="str">
+      <c r="F4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics3: Type Erasure</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics4: Polymorphie</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Strategy-Pattern</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L4" s="35" t="str">
+      <c r="L4" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M4" s="27" t="str">
+      <c r="M4" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N4" s="35" t="str">
+      <c r="N4" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O4" s="27" t="str">
+      <c r="O4" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="29">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="30">
         <v>16.0</v>
       </c>
-      <c r="T4" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="30" t="s">
-        <v>125</v>
+      <c r="T4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="31" t="str">
+      <c r="A5" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build3: Gradle</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build4: CI</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F5" s="31" t="str">
+      <c r="F5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>JUnit1: Basics</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>JUnit2: Testfall-Ermittlung</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>TDD</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="L5" s="33" t="str">
+      <c r="L5" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N5" s="33" t="str">
+      <c r="N5" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O5" s="32" t="str">
+      <c r="O5" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="30">
         <v>17.0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30" t="s">
-        <v>127</v>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="26" t="str">
+      <c r="A6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Bad Smells / Metrics / Tools (Checkstyle, PMD)</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Refactoring</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="F6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Mockito: Mocking</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H6" s="35" t="str">
+      <c r="H6" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J6" s="35" t="str">
+      <c r="J6" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K6" s="27" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L6" s="35" t="str">
+      <c r="L6" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M6" s="27" t="str">
+      <c r="M6" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N6" s="35" t="str">
+      <c r="N6" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O6" s="27" t="str">
+      <c r="O6" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="30">
         <v>18.0</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30" t="s">
-        <v>129</v>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="31" t="str">
+      <c r="A7" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git7: Bisect</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D7" s="31" t="str">
+      <c r="D7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Serialisierung</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Collections</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="H7" s="31" t="str">
+      <c r="H7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Flyweight-Pattern</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J7" s="31" t="str">
+      <c r="J7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Type Object</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v>Observer-Pattern</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="N7" s="33" t="str">
+      <c r="N7" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O7" s="32" t="str">
+      <c r="O7" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="29">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="30">
         <v>19.0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30" t="s">
-        <v>131</v>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="26" t="str">
+      <c r="A8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Annotationen</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Reflection</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Template-Method-Pattern</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="H8" s="35" t="str">
+      <c r="H8" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J8" s="35" t="str">
+      <c r="J8" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L8" s="35" t="str">
+      <c r="L8" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M8" s="27" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N8" s="35" t="str">
+      <c r="N8" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O8" s="27" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="30">
         <v>20.0</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30" t="s">
-        <v>133</v>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="31" t="str">
+      <c r="A9" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>E1</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>45</v>
       </c>
-      <c r="D9" s="31" t="str">
+      <c r="D9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Build1: ANT</v>
-      </c>
-      <c r="E9" s="32">
+        <v>Frameworks (Guava, Apache Commons, ...)</v>
+      </c>
+      <c r="E9" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="F9" s="31" t="str">
+        <v>25</v>
+      </c>
+      <c r="F9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Build2: Maven</v>
-      </c>
-      <c r="G9" s="32">
+        <v>Swing</v>
+      </c>
+      <c r="G9" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H9" s="31" t="str">
+      <c r="H9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Build5: Docker</v>
-      </c>
-      <c r="I9" s="32">
+        <v>Java2D</v>
+      </c>
+      <c r="I9" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K9" s="32" t="str">
+      <c r="K9" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L9" s="33" t="str">
+      <c r="L9" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M9" s="32" t="str">
+      <c r="M9" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N9" s="33" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O9" s="32" t="str">
+      <c r="O9" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="29">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="S9" s="29">
+        <v>110</v>
+      </c>
+      <c r="S9" s="30">
         <v>21.0</v>
       </c>
-      <c r="T9" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>136</v>
+      <c r="T9" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="26" t="str">
+      <c r="A10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Funktionsinterfaces &amp; Lambdas</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Methodenreferenzen</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F10" s="26" t="str">
+      <c r="F10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Defaultmethoden</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>RegExp</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="J10" s="35" t="str">
+      <c r="J10" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L10" s="35" t="str">
+      <c r="L10" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N10" s="35" t="str">
+      <c r="N10" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O10" s="27" t="str">
+      <c r="O10" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="30">
         <v>22.0</v>
       </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30" t="s">
-        <v>138</v>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="31" t="str">
+      <c r="A11" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Stream API</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="D11" s="31" t="str">
+      <c r="D11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Records-Klassen</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F11" s="31" t="str">
+      <c r="F11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Optional</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="str">
+      <c r="H11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Visitor-Pattern</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J11" s="31" t="str">
+      <c r="J11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Command-Pattern</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L11" s="33" t="str">
+      <c r="L11" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M11" s="32" t="str">
+      <c r="M11" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N11" s="33" t="str">
+      <c r="N11" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O11" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="30">
         <v>23.0</v>
       </c>
-      <c r="T11" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>141</v>
+      <c r="T11" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="26" t="str">
+      <c r="A12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads1: Intro</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads2: Synchronisierung</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F12" s="26" t="str">
+      <c r="F12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads3: High-Level Konzepte</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Enumerationen</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="J12" s="26" t="str">
+      <c r="J12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Exceptions</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="L12" s="35" t="str">
+      <c r="L12" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N12" s="35" t="str">
+      <c r="N12" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O12" s="27" t="str">
+      <c r="O12" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="30">
         <v>24.0</v>
       </c>
-      <c r="T12" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>144</v>
+      <c r="T12" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="31" t="str">
+      <c r="A13" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Configuration, JLink, JPackage</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D13" s="31" t="str">
+      <c r="D13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Frameworks (Guava, Apache Commons, ...)</v>
-      </c>
-      <c r="E13" s="32">
+        <v>Build1: ANT</v>
+      </c>
+      <c r="E13" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="F13" s="31" t="str">
+        <v>20</v>
+      </c>
+      <c r="F13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Swing</v>
-      </c>
-      <c r="G13" s="32">
+        <v>Build2: Maven</v>
+      </c>
+      <c r="G13" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H13" s="31" t="str">
+      <c r="H13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,3,0))</f>
-        <v>Java2D</v>
-      </c>
-      <c r="I13" s="32">
+        <v>Build5: Docker</v>
+      </c>
+      <c r="I13" s="34">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K13" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L13" s="33" t="str">
+      <c r="L13" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M13" s="32" t="str">
+      <c r="M13" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N13" s="33" t="str">
+      <c r="N13" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O13" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="35"/>
+      <c r="Q13" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S13" s="29">
+        <v>85</v>
+      </c>
+      <c r="S13" s="30">
         <v>25.0</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30" t="s">
-        <v>146</v>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="26" t="str">
+      <c r="A14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Rückblick</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Prüfungsvorbereitung</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="28">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F14" s="35" t="str">
+      <c r="F14" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="H14" s="35" t="str">
+      <c r="H14" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J14" s="35" t="str">
+      <c r="J14" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L14" s="35" t="str">
+      <c r="L14" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N14" s="35" t="str">
+      <c r="N14" s="36" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O14" s="27" t="str">
+      <c r="O14" s="28" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="30">
         <v>26.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
-        <v>148</v>
+      <c r="A15" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="B15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,3,0))</f>
@@ -31621,17 +31852,17 @@
         <v/>
       </c>
       <c r="P15" s="37"/>
-      <c r="Q15" s="28">
+      <c r="Q15" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="30">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>149</v>
+      <c r="A16" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="B16" s="39" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,3,0))</f>
@@ -31690,11 +31921,11 @@
         <v/>
       </c>
       <c r="P16" s="37"/>
-      <c r="Q16" s="28">
+      <c r="Q16" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="30">
         <v>28.0</v>
       </c>
     </row>
@@ -31703,34 +31934,3451 @@
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30" t="s">
-        <v>150</v>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30" t="s">
-        <v>151</v>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30" t="s">
-        <v>152</v>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30" t="s">
-        <v>153</v>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>80</formula>
+      <formula>95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>95</formula>
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.14"/>
+    <col customWidth="1" min="3" max="3" width="8.0"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="8" max="8" width="14.29"/>
+    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="11" max="11" width="8.0"/>
+    <col customWidth="1" min="13" max="13" width="8.0"/>
+    <col customWidth="1" min="14" max="14" width="12.0"/>
+    <col customWidth="1" min="15" max="15" width="7.86"/>
+    <col customWidth="1" min="16" max="16" width="5.29"/>
+    <col customWidth="1" min="19" max="19" width="6.14"/>
+    <col customWidth="1" min="20" max="20" width="14.0"/>
+    <col customWidth="1" min="21" max="22" width="48.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="28">
+        <v>40.0</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="41">
+        <v>15.0</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="41">
+        <v>20.0</v>
+      </c>
+      <c r="Q2" s="29">
+        <f t="shared" ref="Q2:Q16" si="1">sum(C2,E2,G2,I2,K2,M2,O2)</f>
+        <v>170</v>
+      </c>
+      <c r="S2" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="34">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="34">
+        <v>25.0</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S3" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="28">
+        <v>15.0</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S4" s="30">
+        <v>16.0</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S5" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="28">
+        <v>35.0</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="28">
+        <v>35.0</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="41">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S6" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="43">
+        <v>35.0</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="29">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="S7" s="30">
+        <v>19.0</v>
+      </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="28">
+        <v>30.0</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="28">
+        <v>30.0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="41">
+        <v>15.0</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S8" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="34">
+        <v>45.0</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="29">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="S9" s="30">
+        <v>21.0</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="28">
+        <v>35.0</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S10" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="43">
+        <v>30.0</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S11" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="28">
+        <v>25.0</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="28">
+        <v>15.0</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="41">
+        <v>15.0</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S12" s="30">
+        <v>24.0</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S13" s="30">
+        <v>25.0</v>
+      </c>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S14" s="30">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="30">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="38">
+        <v>45.0</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="29">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S16" s="30">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="22">

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -605,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -629,6 +629,9 @@
     <font>
       <color rgb="FFFF9900"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <color rgb="FFFF9900"/>
     </font>
   </fonts>
   <fills count="6">
@@ -778,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -909,6 +912,12 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34775,10 +34784,10 @@
       <c r="K7" s="43">
         <v>10.0</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="45">
         <v>10.0</v>
       </c>
       <c r="N7" s="35" t="s">

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="193">
   <si>
     <t>Thema</t>
   </si>
@@ -571,7 +571,10 @@
     <t/>
   </si>
   <si>
-    <t>P1: Git-Basics, Git-Branches</t>
+    <t>P1: Git-Basics, Git-Branches, Git Remotes</t>
+  </si>
+  <si>
+    <t>P1: Dungeon-Basics</t>
   </si>
   <si>
     <t>P2: Logging, Factory-Pattern</t>
@@ -605,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -629,9 +632,6 @@
     <font>
       <color rgb="FFFF9900"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <color rgb="FFFF9900"/>
     </font>
   </fonts>
   <fills count="6">
@@ -781,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -912,12 +912,6 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34367,8 +34361,8 @@
     <col customWidth="1" min="9" max="9" width="8.0"/>
     <col customWidth="1" min="11" max="11" width="8.0"/>
     <col customWidth="1" min="13" max="13" width="8.0"/>
-    <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="15" width="7.86"/>
+    <col customWidth="1" min="14" max="14" width="12.86"/>
+    <col customWidth="1" min="15" max="15" width="8.14"/>
     <col customWidth="1" min="16" max="16" width="5.29"/>
     <col customWidth="1" min="19" max="19" width="6.14"/>
     <col customWidth="1" min="20" max="20" width="14.0"/>
@@ -34561,7 +34555,7 @@
         <v>182</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -34621,7 +34615,7 @@
         <v>140</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V4" s="31" t="s">
         <v>142</v>
@@ -34683,7 +34677,7 @@
       </c>
       <c r="T5" s="31"/>
       <c r="U5" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>145</v>
@@ -34744,7 +34738,7 @@
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V6" s="31" t="s">
         <v>148</v>
@@ -34784,10 +34778,10 @@
       <c r="K7" s="43">
         <v>10.0</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="43">
         <v>10.0</v>
       </c>
       <c r="N7" s="35" t="s">
@@ -34806,7 +34800,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>151</v>
@@ -34867,7 +34861,7 @@
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>154</v>
@@ -34992,7 +34986,7 @@
       </c>
       <c r="T10" s="31"/>
       <c r="U10" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V10" s="31" t="s">
         <v>160</v>
@@ -35056,7 +35050,7 @@
         <v>162</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>164</v>
@@ -35119,7 +35113,7 @@
         <v>166</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V12" s="31" t="s">
         <v>168</v>
@@ -35181,7 +35175,7 @@
       </c>
       <c r="T13" s="31"/>
       <c r="U13" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>171</v>

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -5,20 +5,22 @@
   <sheets>
     <sheet state="hidden" name="Themen" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="Wochenüberblick (alt Formeln)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Wochenüberblick (neu Werte)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Wochenüberblick (alt VL Mo)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="V1 (neu VL Fr)" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="V2 (neu VL Fr)" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mggHK8JJ6gxh28LK1bFBqHfx/0MEQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjUHGNnuusos8bRYloCm4VH7NeoHw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="219">
   <si>
     <t>Thema</t>
   </si>
@@ -571,48 +573,180 @@
     <t/>
   </si>
   <si>
-    <t>P1: Git-Basics, Git-Branches, Git Remotes</t>
+    <t>K1: Git-Basics, Git-Branches, Git Remotes</t>
   </si>
   <si>
     <t>P1: Dungeon-Basics</t>
   </si>
   <si>
-    <t>P2: Logging, Factory-Pattern</t>
+    <t>K2: Logging, Factory-Pattern</t>
   </si>
   <si>
-    <t>P3: Generics, Strategy-Pattern</t>
+    <t>K3: Generics, Strategy-Pattern</t>
   </si>
   <si>
-    <t>P4: Junit-Basic, Junit-Advanced, Gradle</t>
+    <t>K4: Junit-Basic, Junit-Advanced, Gradle</t>
   </si>
   <si>
-    <t>P5: Mocking, Bad Smells und Refactoring</t>
+    <t>K5: Mocking, Bad Smells und Refactoring</t>
   </si>
   <si>
-    <t>P6: Type Object, Flyweight-Pattern, Observer-Pattern</t>
+    <t>K6: Type Object, Flyweight-Pattern, Observer-Pattern</t>
   </si>
   <si>
-    <t>P7: Template-Method-Pattern, Reflection, Annotations, Swing</t>
+    <t>K7: Template-Method-Pattern, Reflection, Annotations, Swing</t>
   </si>
   <si>
-    <t>P8: Funktionsinterfaces, Lambdas, Methodenreferenzen, RegExp, Defaultmethoden</t>
+    <t>K8: Funktionsinterfaces, Lambdas, Methodenreferenzen, RegExp, Defaultmethoden</t>
   </si>
   <si>
-    <t>P9: Stream-API, Visitor-Pattern, Optional, Command-Pattern</t>
+    <t>K9: Stream-API, Visitor-Pattern, Optional, Command-Pattern</t>
   </si>
   <si>
-    <t>P10: Multithreading, Enumeration</t>
+    <t>K10: Multithreading, Enumeration</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Dominic: JDBC dieses Jahr???</t>
+  </si>
+  <si>
+    <t>Idee: =&gt; BC?! 
+- VL in Woche 1 sowohl Mo als auch Fr, danach nur Fr
+- Abgaben Konzept immer Montag, Vorstellung Freitag
+- Abgabe K1 ins W2, Abgabe K2 in W3, Vorstellung K1+K2 in W3
+- Dungeon verschiebt sich um eine Woche, d.h. Abgabe+Vorstellung P1: W3
+Alternative: erste Woche kurzes Praktikum oder Praktikum komplett eine Woche nach hinten schieben</t>
+  </si>
+  <si>
+    <t>Zukunft:
+- erste Hälfte Themen verbindlich
+- zweite Hälfte Themen frei ("Stacks")
+- Konzeptaufgaben thematisch in Pools sortieren (analog zum Dungeon)</t>
+  </si>
+  <si>
+    <t>1 (Mo)</t>
+  </si>
+  <si>
+    <t>kein Praktikum in W1</t>
+  </si>
+  <si>
+    <t>1 (Fr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">K1: Git (Basics, Branches, Remotes) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>(nur Abgabe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">K2: Logging, Factory-Method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>plus Vorstellung K1</t>
+    </r>
+  </si>
+  <si>
+    <t>K3: Generics, Strategy</t>
+  </si>
+  <si>
+    <t>K4: Junit, Gradle</t>
+  </si>
+  <si>
+    <t>K6: Serialisierung, Type Object, Flyweight, Observer</t>
+  </si>
+  <si>
+    <t>Frameworks (Guava, Apache Commons, JDBC/?), ...)</t>
+  </si>
+  <si>
+    <t>K7: Template-Method, Reflection, Annotations, Swing</t>
+  </si>
+  <si>
+    <t>K9: Stream-API, Optional, Visitor, Command-Pattern</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">K1: Git (Basics, Branches, Remotes) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>(nur Abgabe)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorstellung K1</t>
+  </si>
+  <si>
+    <t>K2: Generics, Logging, Factory-Method</t>
+  </si>
+  <si>
+    <t>K3: Junit, Strategy-Pattern</t>
+  </si>
+  <si>
+    <t>K4: Mocking, Bad Smells und Refactoring</t>
+  </si>
+  <si>
+    <t>K5: Serialisierung, Type Object, Flyweight, Observer</t>
+  </si>
+  <si>
+    <t>K6: Template-Method, Reflection, Annotations, Swing</t>
+  </si>
+  <si>
+    <t>K7: Funktionsinterfaces, Lambdas, Methodenreferenzen, RegExp, Defaultmethoden</t>
+  </si>
+  <si>
+    <t>K8: Stream-API, Optional, Visitor, Command</t>
+  </si>
+  <si>
+    <t>K9: Multithreading, Enumeration</t>
+  </si>
+  <si>
+    <t>K10: Ant, Maven, CI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -621,20 +755,96 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF9900"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF9900"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF9900"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF9900"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <color rgb="FFFF9900"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +873,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -781,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -794,7 +1034,7 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -803,55 +1043,55 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -863,55 +1103,136 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,6 +1313,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -34345,10 +34674,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
@@ -34437,51 +34764,51 @@
       <c r="A2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="28">
         <v>40.0</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="40" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="28">
         <v>20.0</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="28">
         <v>25.0</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="28">
         <v>25.0</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="28">
-        <v>25.0</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="42">
         <v>15.0</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="42">
         <v>20.0</v>
       </c>
       <c r="Q2" s="29">
         <f t="shared" ref="Q2:Q16" si="1">sum(C2,E2,G2,I2,K2,M2,O2)</f>
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="S2" s="30">
         <v>14.0</v>
@@ -34498,31 +34825,31 @@
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="34">
         <v>25.0</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34">
-        <v>25.0</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="44">
+        <v>20.0</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="34">
         <v>15.0</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="46">
         <v>10.0</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="43" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="34">
@@ -34543,7 +34870,7 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="29">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S3" s="30">
         <v>15.0</v>
@@ -34562,31 +34889,31 @@
       <c r="A4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="28">
         <v>20.0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="28">
         <v>20.0</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="40" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="28">
         <v>20.0</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="40" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="28">
         <v>15.0</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="40" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="28">
@@ -34625,7 +34952,7 @@
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="43" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="34">
@@ -34637,13 +34964,13 @@
       <c r="E5" s="34">
         <v>20.0</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="43" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="34">
         <v>20.0</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="34">
@@ -34687,22 +35014,22 @@
       <c r="A6" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="28">
         <v>35.0</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="28">
         <v>35.0</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="42">
         <v>20.0</v>
       </c>
       <c r="H6" s="36" t="s">
@@ -34751,37 +35078,37 @@
       <c r="B7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="46">
+        <v>35.0</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="46">
         <v>10.0</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="43">
-        <v>35.0</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="J7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="46">
         <v>10.0</v>
       </c>
-      <c r="J7" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="46">
         <v>10.0</v>
       </c>
       <c r="N7" s="35" t="s">
@@ -34793,7 +35120,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="29">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S7" s="30">
         <v>19.0</v>
@@ -34810,7 +35137,7 @@
       <c r="A8" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="40" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="28">
@@ -34822,10 +35149,10 @@
       <c r="E8" s="28">
         <v>30.0</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="42">
         <v>15.0</v>
       </c>
       <c r="H8" s="36" t="s">
@@ -34871,16 +35198,16 @@
       <c r="A9" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="43" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="34">
         <v>45.0</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="46">
         <v>25.0</v>
       </c>
       <c r="F9" s="35" t="s">
@@ -34935,25 +35262,25 @@
       <c r="A10" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="40" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="28">
         <v>10.0</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="40" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="28">
         <v>25.0</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="40" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="28">
         <v>20.0</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="28">
@@ -34996,22 +35323,22 @@
       <c r="A11" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="46">
         <v>30.0</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="46">
         <v>20.0</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="46">
         <v>20.0</v>
       </c>
       <c r="H11" s="35" t="s">
@@ -35020,10 +35347,10 @@
       <c r="I11" s="34">
         <v>10.0</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="46">
         <v>10.0</v>
       </c>
       <c r="L11" s="35" t="s">
@@ -35078,16 +35405,16 @@
       <c r="G12" s="28">
         <v>25.0</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="40" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="28">
         <v>15.0</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="42">
         <v>15.0</v>
       </c>
       <c r="L12" s="36" t="s">
@@ -35123,10 +35450,10 @@
       <c r="A13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="46">
         <v>25.0</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -35141,10 +35468,10 @@
       <c r="G13" s="34">
         <v>20.0</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="46">
         <v>20.0</v>
       </c>
       <c r="J13" s="35" t="s">
@@ -35185,13 +35512,13 @@
       <c r="A14" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="28">
         <v>20.0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="28">
@@ -35294,7 +35621,7 @@
       <c r="A16" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="49" t="s">
         <v>112</v>
       </c>
       <c r="C16" s="38">
@@ -35365,6 +35692,9 @@
       <c r="V19" s="31" t="s">
         <v>176</v>
       </c>
+      <c r="Z19" s="31" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
@@ -35389,15 +35719,24 @@
     </row>
     <row r="23">
       <c r="A23" s="4"/>
+      <c r="U23" s="50" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
+      <c r="U24" s="51" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
+      <c r="U26" s="52" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -37749,4 +38088,6901 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.14"/>
+    <col customWidth="1" min="3" max="3" width="8.0"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="8" max="8" width="14.29"/>
+    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="11" max="11" width="8.0"/>
+    <col customWidth="1" min="13" max="13" width="8.0"/>
+    <col customWidth="1" min="14" max="14" width="12.86"/>
+    <col customWidth="1" min="15" max="15" width="8.14"/>
+    <col customWidth="1" min="16" max="16" width="5.29"/>
+    <col customWidth="1" min="19" max="19" width="6.14"/>
+    <col customWidth="1" min="20" max="20" width="14.0"/>
+    <col customWidth="1" min="21" max="22" width="48.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="54">
+        <v>40.0</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="29">
+        <f t="shared" ref="Q2:Q17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2)</f>
+        <v>85</v>
+      </c>
+      <c r="S2" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="55">
+        <v>15.0</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S3" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="44">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="29">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S4" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S5" s="30">
+        <v>16.0</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S6" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="59">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S7" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="60">
+        <v>25.0</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="S8" s="30">
+        <v>19.0</v>
+      </c>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="54">
+        <v>30.0</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="54">
+        <v>30.0</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59">
+        <v>15.0</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S9" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="34">
+        <v>45.0</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="46">
+        <v>25.0</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="29">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="S10" s="30">
+        <v>21.0</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S12" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="59">
+        <v>15.0</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S13" s="30">
+        <v>24.0</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="46">
+        <v>25.0</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S14" s="30">
+        <v>25.0</v>
+      </c>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="V14" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S15" s="30">
+        <v>26.0</v>
+      </c>
+      <c r="V15" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="30">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="38">
+        <v>45.0</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="29">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S17" s="30">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+      <c r="D20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="65">
+        <v>15.0</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z20" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+      <c r="D21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="65">
+        <v>20.0</v>
+      </c>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4"/>
+      <c r="U24" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+      <c r="U25" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4"/>
+      <c r="U27" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>80</formula>
+      <formula>95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>95</formula>
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.14"/>
+    <col customWidth="1" min="3" max="3" width="8.0"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="8" max="8" width="14.29"/>
+    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="11" max="11" width="8.0"/>
+    <col customWidth="1" min="13" max="13" width="8.0"/>
+    <col customWidth="1" min="14" max="14" width="12.86"/>
+    <col customWidth="1" min="15" max="15" width="8.14"/>
+    <col customWidth="1" min="16" max="16" width="5.29"/>
+    <col customWidth="1" min="19" max="19" width="6.14"/>
+    <col customWidth="1" min="20" max="20" width="14.0"/>
+    <col customWidth="1" min="21" max="22" width="48.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="54">
+        <v>40.0</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="29">
+        <f t="shared" ref="Q2:Q17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2)</f>
+        <v>85</v>
+      </c>
+      <c r="S2" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="55">
+        <v>15.0</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="55">
+        <v>20.0</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S3" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="67">
+        <v>15.0</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="59">
+        <v>10.0</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S5" s="30">
+        <v>16.0</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="70">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="70">
+        <v>20.0</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S6" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="59">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S7" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="60">
+        <v>25.0</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="29">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="S8" s="30">
+        <v>19.0</v>
+      </c>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="54">
+        <v>30.0</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="54">
+        <v>30.0</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59">
+        <v>15.0</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S9" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="34">
+        <v>45.0</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="46">
+        <v>25.0</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="29">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="S10" s="30">
+        <v>21.0</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="46">
+        <v>20.0</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S12" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="59">
+        <v>15.0</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S13" s="30">
+        <v>24.0</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="46">
+        <v>25.0</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S14" s="30">
+        <v>25.0</v>
+      </c>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="V14" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S15" s="30">
+        <v>26.0</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="V15" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="30">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="38">
+        <v>45.0</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="29">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S17" s="30">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+      <c r="D20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="65">
+        <v>15.0</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z20" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+      <c r="D21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="65">
+        <v>20.0</v>
+      </c>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+      <c r="D22" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="65">
+        <v>20.0</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="54"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4"/>
+      <c r="U24" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+      <c r="U25" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4"/>
+      <c r="U27" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>80</formula>
+      <formula>95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>95</formula>
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -5,9 +5,9 @@
   <sheets>
     <sheet state="hidden" name="Themen" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="Wochenüberblick (alt Formeln)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Wochenüberblick (alt VL Mo)" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Wochenüberblick (alt VL Mo)" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="V1 (neu VL Fr)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="V2 (neu VL Fr)" sheetId="5" r:id="rId8"/>
+    <sheet state="hidden" name="V2 (neu VL Fr)" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="241">
   <si>
     <t>Thema</t>
   </si>
@@ -626,19 +626,25 @@
 - Konzeptaufgaben thematisch in Pools sortieren (analog zum Dungeon)</t>
   </si>
   <si>
+    <t>Konzeptübungen (Abgabe/Vorstellung)</t>
+  </si>
+  <si>
+    <t>Dungeon-Aufgaben (Abgabe/Vorstellung)</t>
+  </si>
+  <si>
     <t>1 (Mo)</t>
   </si>
   <si>
     <t>kein Praktikum in W1</t>
   </si>
   <si>
-    <t>1 (Fr)</t>
+    <t>2 (Fr)</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Helvetica Neue"/>
-        <color theme="1"/>
+        <color rgb="FF6AA84F"/>
       </rPr>
       <t xml:space="preserve">K1: Git (Basics, Branches, Remotes) 
 </t>
@@ -647,7 +653,7 @@
       <rPr>
         <rFont val="Helvetica Neue"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF6AA84F"/>
       </rPr>
       <t>(nur Abgabe)</t>
     </r>
@@ -656,7 +662,7 @@
     <r>
       <rPr>
         <rFont val="Helvetica Neue"/>
-        <color theme="1"/>
+        <color rgb="FF6AA84F"/>
       </rPr>
       <t xml:space="preserve">K2: Logging, Factory-Method
 </t>
@@ -665,19 +671,55 @@
       <rPr>
         <rFont val="Helvetica Neue"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF6AA84F"/>
       </rPr>
       <t>plus Vorstellung K1</t>
     </r>
   </si>
   <si>
+    <t>D1: Dungeon-Basics</t>
+  </si>
+  <si>
+    <t>JUnit1: Intro</t>
+  </si>
+  <si>
+    <t>JUnit2: Basics</t>
+  </si>
+  <si>
+    <t>JUnit3: Testfall-Ermittlung</t>
+  </si>
+  <si>
     <t>K3: Generics, Strategy</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Bad Smells</t>
+  </si>
+  <si>
+    <t>Coding Rules und Metriken</t>
+  </si>
+  <si>
+    <t>JUnit4: Mocking (Mockito)</t>
   </si>
   <si>
     <t>K4: Junit, Gradle</t>
   </si>
   <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Serialisierung (equals, hashCode Wdhlg)</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>K6: Serialisierung, Type Object, Flyweight, Observer</t>
+  </si>
+  <si>
+    <t>D5</t>
   </si>
   <si>
     <t>Frameworks (Guava, Apache Commons, JDBC/?), ...)</t>
@@ -686,7 +728,31 @@
     <t>K7: Template-Method, Reflection, Annotations, Swing</t>
   </si>
   <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
     <t>K9: Stream-API, Optional, Visitor, Command-Pattern</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>E2 (tbd)</t>
+  </si>
+  <si>
+    <t>1 (Fr)</t>
   </si>
   <si>
     <r>
@@ -741,7 +807,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -807,7 +873,42 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF6AA84F"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF6AA84F"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF6AA84F"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF6AA84F"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF6AA84F"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF9900"/>
       <name val="Helvetica Neue"/>
       <scheme val="minor"/>
     </font>
@@ -819,6 +920,12 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1021,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1184,6 +1291,15 @@
     <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1193,25 +1309,55 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1220,19 +1366,19 @@
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34898,14 +35044,14 @@
       <c r="D4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="28">
-        <v>20.0</v>
+      <c r="E4" s="30">
+        <v>10.0</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="28">
-        <v>20.0</v>
+      <c r="G4" s="30">
+        <v>15.0</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>66</v>
@@ -34933,7 +35079,7 @@
       </c>
       <c r="Q4" s="29">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="S4" s="30">
         <v>16.0</v>
@@ -38096,10 +38242,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -38114,9 +38257,10 @@
     <col customWidth="1" min="14" max="14" width="12.86"/>
     <col customWidth="1" min="15" max="15" width="8.14"/>
     <col customWidth="1" min="16" max="16" width="5.29"/>
+    <col customWidth="1" min="18" max="18" width="5.71"/>
     <col customWidth="1" min="19" max="19" width="6.14"/>
-    <col customWidth="1" min="20" max="20" width="14.0"/>
-    <col customWidth="1" min="21" max="22" width="48.86"/>
+    <col customWidth="1" min="20" max="20" width="13.29"/>
+    <col customWidth="1" min="21" max="22" width="44.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38177,127 +38321,127 @@
         <v>130</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="54">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="55">
         <v>20.0</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="55">
         <v>25.0</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="59"/>
       <c r="Q2" s="29">
         <f t="shared" ref="Q2:Q17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="S2" s="30">
         <v>14.0</v>
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="55">
         <v>25.0</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="54">
         <v>15.0</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="55">
         <v>25.0</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="55">
         <v>10.0</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>52</v>
       </c>
       <c r="K3" s="54">
-        <v>15.0</v>
-      </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="56"/>
+        <v>20.0</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="S3" s="30">
         <v>14.0</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="61">
         <v>20.0</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="46">
-        <v>10.0</v>
+      <c r="E4" s="61">
+        <v>15.0</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -38320,68 +38464,68 @@
       <c r="P4" s="35"/>
       <c r="Q4" s="29">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S4" s="30">
         <v>15.0</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="31" t="s">
-        <v>200</v>
+      <c r="U4" s="63" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="55">
         <v>20.0</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="54">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G5" s="54">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="55">
         <v>15.0</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="55">
         <v>10.0</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="56"/>
+      <c r="P5" s="59"/>
       <c r="Q5" s="29">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="S5" s="30">
         <v>16.0</v>
@@ -38389,53 +38533,49 @@
       <c r="T5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>183</v>
+      <c r="U5" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="V5" s="63" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="61">
+        <v>25.0</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="61">
         <v>15.0</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="34">
-        <v>15.0</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>181</v>
-      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="35" t="s">
         <v>181</v>
       </c>
@@ -38451,176 +38591,180 @@
         <v>17.0</v>
       </c>
       <c r="T6" s="31"/>
-      <c r="U6" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>142</v>
+      <c r="U6" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="V6" s="63" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>55</v>
+        <v>149</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>210</v>
       </c>
       <c r="C7" s="54">
-        <v>35.0</v>
-      </c>
-      <c r="D7" s="53" t="s">
+        <v>30.0</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="54">
+        <v>30.0</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="54">
-        <v>35.0</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="59">
+      <c r="G7" s="54">
         <v>20.0</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="56" t="s">
+      <c r="H7" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="68">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="56"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="S7" s="30">
         <v>18.0</v>
       </c>
       <c r="T7" s="31"/>
-      <c r="U7" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>145</v>
+      <c r="U7" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="63" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="61">
         <v>5.0</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="D8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="61">
+        <v>15.0</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="46">
         <v>20.0</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="H8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="60">
+      <c r="I8" s="71">
         <v>25.0</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="J8" s="47" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" s="46">
-        <v>10.0</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>44</v>
       </c>
       <c r="K8" s="46">
         <v>10.0</v>
       </c>
-      <c r="L8" s="45" t="s">
-        <v>32</v>
+      <c r="L8" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="M8" s="46">
         <v>10.0</v>
       </c>
-      <c r="N8" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>181</v>
+      <c r="N8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="46">
+        <v>10.0</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="29">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="S8" s="30">
         <v>19.0</v>
       </c>
       <c r="T8" s="31"/>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="V8" s="31" t="s">
-        <v>148</v>
+      <c r="V8" s="63" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="57">
         <v>30.0</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="57">
         <v>30.0</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="68">
         <v>15.0</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -38630,24 +38774,24 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>151</v>
+        <v>217</v>
+      </c>
+      <c r="V9" s="63" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>205</v>
+      <c r="D10" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -38702,43 +38846,43 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="57">
         <v>10.0</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="57">
         <v>25.0</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="57">
         <v>20.0</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="57">
         <v>35.0</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="75"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P11" s="56"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -38748,15 +38892,15 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="V11" s="31" t="s">
-        <v>154</v>
+        <v>220</v>
+      </c>
+      <c r="V11" s="63" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>74</v>
@@ -38814,57 +38958,57 @@
       <c r="U12" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="V12" s="31" t="s">
-        <v>160</v>
+      <c r="V12" s="63" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="57">
         <v>10.0</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="57">
         <v>25.0</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="57">
         <v>25.0</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="57">
         <v>15.0</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="68">
         <v>15.0</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O13" s="54" t="s">
+      <c r="O13" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="56"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -38876,15 +39020,15 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="V13" s="31" t="s">
-        <v>164</v>
+        <v>223</v>
+      </c>
+      <c r="V13" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>81</v>
@@ -38936,57 +39080,57 @@
       <c r="U14" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="V14" s="31" t="s">
-        <v>168</v>
+      <c r="V14" s="63" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="57">
         <v>20.0</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="57">
         <v>20.0</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -38994,13 +39138,13 @@
       <c r="S15" s="30">
         <v>26.0</v>
       </c>
-      <c r="V15" s="31" t="s">
-        <v>171</v>
+      <c r="V15" s="63" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>181</v>
@@ -39055,10 +39199,10 @@
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>112</v>
+        <v>227</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>228</v>
       </c>
       <c r="C17" s="38">
         <v>45.0</v>
@@ -39122,10 +39266,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="78">
         <v>15.0</v>
       </c>
       <c r="S20" s="31"/>
@@ -39140,10 +39284,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="78">
         <v>20.0</v>
       </c>
       <c r="S21" s="31"/>
@@ -41633,35 +41777,35 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="57">
         <v>40.0</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="57">
         <v>20.0</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="57">
         <v>25.0</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
       <c r="Q2" s="29">
         <f t="shared" ref="Q2:Q17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2)</f>
         <v>85</v>
@@ -41671,47 +41815,47 @@
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="57">
         <v>25.0</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="58">
         <v>15.0</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="57">
         <v>25.0</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="58">
         <v>20.0</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="29">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -41721,10 +41865,10 @@
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -41761,63 +41905,63 @@
       <c r="S4" s="30">
         <v>15.0</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="62" t="s">
         <v>136</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="57">
         <v>20.0</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="54">
-        <v>20.0</v>
-      </c>
-      <c r="F5" s="53" t="s">
+      <c r="E5" s="58">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="57">
         <v>15.0</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="57">
         <v>10.0</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="80">
         <v>15.0</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="68">
         <v>10.0</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="56"/>
+      <c r="P5" s="59"/>
       <c r="Q5" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S5" s="30">
         <v>16.0</v>
@@ -41825,8 +41969,8 @@
       <c r="T5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="68" t="s">
-        <v>209</v>
+      <c r="U5" s="81" t="s">
+        <v>231</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>183</v>
@@ -41836,16 +41980,16 @@
       <c r="A6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="83">
         <v>20.0</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="83">
         <v>20.0</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -41857,8 +42001,8 @@
       <c r="H6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="34">
-        <v>20.0</v>
+      <c r="I6" s="44">
+        <v>15.0</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>66</v>
@@ -41881,14 +42025,14 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="29">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S6" s="30">
         <v>17.0</v>
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="V6" s="31" t="s">
         <v>142</v>
@@ -41898,41 +42042,41 @@
       <c r="A7" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="57">
         <v>35.0</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="57">
         <v>35.0</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="68">
         <v>20.0</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="56" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="56"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -41942,7 +42086,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>145</v>
@@ -41973,7 +42117,7 @@
       <c r="H8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="71">
         <v>25.0</v>
       </c>
       <c r="J8" s="47" t="s">
@@ -42004,7 +42148,7 @@
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>148</v>
@@ -42014,49 +42158,49 @@
       <c r="A9" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="57">
         <v>30.0</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="57">
         <v>30.0</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="68">
         <v>15.0</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -42066,7 +42210,7 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>151</v>
@@ -42076,14 +42220,14 @@
       <c r="A10" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="73" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>205</v>
+      <c r="D10" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -42140,41 +42284,41 @@
       <c r="A11" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="57">
         <v>10.0</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="57">
         <v>25.0</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="57">
         <v>20.0</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="57">
         <v>35.0</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="75"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P11" s="56"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -42184,7 +42328,7 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>154</v>
@@ -42248,7 +42392,7 @@
         <v>162</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="V12" s="31" t="s">
         <v>160</v>
@@ -42258,49 +42402,49 @@
       <c r="A13" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="57">
         <v>10.0</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="57">
         <v>25.0</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="57">
         <v>25.0</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="57">
         <v>15.0</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="68">
         <v>15.0</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O13" s="54" t="s">
+      <c r="O13" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="56"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -42312,7 +42456,7 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>164</v>
@@ -42370,7 +42514,7 @@
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="V14" s="31" t="s">
         <v>168</v>
@@ -42380,49 +42524,49 @@
       <c r="A15" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="57">
         <v>20.0</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="57">
         <v>20.0</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -42431,7 +42575,7 @@
         <v>26.0</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>171</v>
@@ -42561,10 +42705,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="78">
         <v>15.0</v>
       </c>
       <c r="S20" s="31"/>
@@ -42579,10 +42723,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="78">
         <v>20.0</v>
       </c>
       <c r="S21" s="31"/>
@@ -42594,16 +42738,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="78">
         <v>20.0</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="54"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="57"/>
       <c r="S22" s="31"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="243">
   <si>
     <t>Thema</t>
   </si>
@@ -713,10 +713,13 @@
     <t>Serialisierung (equals, hashCode Wdhlg)</t>
   </si>
   <si>
+    <t>Type-Object-Pattern</t>
+  </si>
+  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>K6: Serialisierung, Type Object, Flyweight, Observer</t>
+    <t>K6: Serialisierung, Type Object, Flyweight, Observer, Enumeration</t>
   </si>
   <si>
     <t>D5</t>
@@ -738,6 +741,9 @@
   </si>
   <si>
     <t>D8</t>
+  </si>
+  <si>
+    <t>K10: Multithreading</t>
   </si>
   <si>
     <t>D9</t>
@@ -1345,14 +1351,14 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -38260,7 +38266,7 @@
     <col customWidth="1" min="18" max="18" width="5.71"/>
     <col customWidth="1" min="19" max="19" width="6.14"/>
     <col customWidth="1" min="20" max="20" width="13.29"/>
-    <col customWidth="1" min="21" max="22" width="44.14"/>
+    <col customWidth="1" min="21" max="22" width="32.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38675,14 +38681,14 @@
       <c r="F8" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="46">
-        <v>20.0</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="71">
-        <v>25.0</v>
+      <c r="G8" s="71">
+        <v>15.0</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="34">
+        <v>15.0</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>43</v>
@@ -38690,22 +38696,22 @@
       <c r="K8" s="46">
         <v>10.0</v>
       </c>
-      <c r="L8" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="46">
-        <v>10.0</v>
+      <c r="L8" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="71">
+        <v>15.0</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="46">
-        <v>10.0</v>
+      <c r="O8" s="71">
+        <v>15.0</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="29">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S8" s="30">
         <v>19.0</v>
@@ -38715,7 +38721,7 @@
         <v>187</v>
       </c>
       <c r="V8" s="63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
@@ -38734,7 +38740,7 @@
       <c r="E9" s="57">
         <v>30.0</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="68">
@@ -38774,24 +38780,24 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V9" s="63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>219</v>
+      <c r="D10" s="72" t="s">
+        <v>220</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -38874,7 +38880,7 @@
       </c>
       <c r="J11" s="75"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="68"/>
       <c r="N11" s="59" t="s">
         <v>181</v>
@@ -38892,10 +38898,10 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V11" s="63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
@@ -38959,7 +38965,7 @@
         <v>190</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
@@ -38984,11 +38990,11 @@
       <c r="G13" s="57">
         <v>25.0</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="57">
-        <v>15.0</v>
+      <c r="H13" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="68">
+        <v>25.0</v>
       </c>
       <c r="J13" s="75" t="s">
         <v>89</v>
@@ -39011,7 +39017,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="S13" s="30">
         <v>24.0</v>
@@ -39020,10 +39026,10 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V13" s="63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
@@ -39078,10 +39084,10 @@
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="V14" s="63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
@@ -39139,7 +39145,7 @@
         <v>26.0</v>
       </c>
       <c r="V15" s="63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
@@ -39199,10 +39205,10 @@
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C17" s="38">
         <v>45.0</v>
@@ -41823,7 +41829,7 @@
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>20</v>
@@ -41909,7 +41915,7 @@
         <v>136</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -41946,7 +41952,7 @@
       <c r="K5" s="80">
         <v>15.0</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>54</v>
       </c>
       <c r="M5" s="68">
@@ -41970,7 +41976,7 @@
         <v>140</v>
       </c>
       <c r="U5" s="81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>183</v>
@@ -42032,7 +42038,7 @@
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V6" s="31" t="s">
         <v>142</v>
@@ -42086,7 +42092,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>145</v>
@@ -42148,7 +42154,7 @@
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>148</v>
@@ -42170,7 +42176,7 @@
       <c r="E9" s="57">
         <v>30.0</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="68">
@@ -42210,7 +42216,7 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>151</v>
@@ -42220,14 +42226,14 @@
       <c r="A10" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>219</v>
+      <c r="D10" s="72" t="s">
+        <v>220</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -42310,7 +42316,7 @@
       </c>
       <c r="J11" s="75"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="68"/>
       <c r="N11" s="59" t="s">
         <v>181</v>
@@ -42328,7 +42334,7 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>154</v>
@@ -42392,7 +42398,7 @@
         <v>162</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V12" s="31" t="s">
         <v>160</v>
@@ -42456,7 +42462,7 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>164</v>
@@ -42514,7 +42520,7 @@
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V14" s="31" t="s">
         <v>168</v>
@@ -42575,7 +42581,7 @@
         <v>26.0</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>171</v>

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjUHGNnuusos8bRYloCm4VH7NeoHw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhy0l8ZmI7pIlaskSFjh4LrdkTbLQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="252">
   <si>
     <t>Thema</t>
   </si>
@@ -626,6 +626,12 @@
 - Konzeptaufgaben thematisch in Pools sortieren (analog zum Dungeon)</t>
   </si>
   <si>
+    <t>Einheit 8</t>
+  </si>
+  <si>
+    <t>Dauer 8</t>
+  </si>
+  <si>
     <t>Konzeptübungen (Abgabe/Vorstellung)</t>
   </si>
   <si>
@@ -710,7 +716,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>Serialisierung (equals, hashCode Wdhlg)</t>
+    <t>Singleton-Pattern</t>
   </si>
   <si>
     <t>Type-Object-Pattern</t>
@@ -719,16 +725,31 @@
     <t>D4</t>
   </si>
   <si>
-    <t>K6: Serialisierung, Type Object, Flyweight, Observer, Enumeration</t>
+    <t>Serialisierung (equals, hashCode Wdhlg)</t>
+  </si>
+  <si>
+    <t>K6: Type Object, Flyweight, Observer, Enumeration</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>Frameworks (Guava, Apache Commons, JDBC/?), ...)</t>
+    <t>Swing Basics</t>
   </si>
   <si>
-    <t>K7: Template-Method, Reflection, Annotations, Swing</t>
+    <t>Swing Events</t>
+  </si>
+  <si>
+    <t>Swing Layouts</t>
+  </si>
+  <si>
+    <t>Swing Widgets</t>
+  </si>
+  <si>
+    <t>Swing Tabellen</t>
+  </si>
+  <si>
+    <t>K7: Serialisierung, Template-Method, Reflection, Annotations, Swing</t>
   </si>
   <si>
     <t>D6</t>
@@ -737,7 +758,7 @@
     <t>D7</t>
   </si>
   <si>
-    <t>K9: Stream-API, Optional, Visitor, Command-Pattern</t>
+    <t>K9: Stream-API, Optional, Visitor, Command-Pattern, JUnit</t>
   </si>
   <si>
     <t>D8</t>
@@ -756,6 +777,9 @@
   </si>
   <si>
     <t>E2 (tbd)</t>
+  </si>
+  <si>
+    <t>Testcoverage, BDD</t>
   </si>
   <si>
     <t>1 (Fr)</t>
@@ -794,6 +818,9 @@
     <t>K5: Serialisierung, Type Object, Flyweight, Observer</t>
   </si>
   <si>
+    <t>Frameworks (Guava, Apache Commons, JDBC/?), ...)</t>
+  </si>
+  <si>
     <t>K6: Template-Method, Reflection, Annotations, Swing</t>
   </si>
   <si>
@@ -813,7 +840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -913,21 +940,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <color rgb="FFFF9900"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color rgb="FFFF9900"/>
-      <name val="Helvetica Neue"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <scheme val="minor"/>
     </font>
@@ -957,7 +978,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1031,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1134,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1336,56 +1363,68 @@
     <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -38262,11 +38301,14 @@
     <col customWidth="1" min="13" max="13" width="8.0"/>
     <col customWidth="1" min="14" max="14" width="12.86"/>
     <col customWidth="1" min="15" max="15" width="8.14"/>
-    <col customWidth="1" min="16" max="16" width="5.29"/>
-    <col customWidth="1" min="18" max="18" width="5.71"/>
-    <col customWidth="1" min="19" max="19" width="6.14"/>
-    <col customWidth="1" min="20" max="20" width="13.29"/>
-    <col customWidth="1" min="21" max="22" width="32.0"/>
+    <col customWidth="1" hidden="1" min="16" max="16" width="12.43"/>
+    <col customWidth="1" hidden="1" min="17" max="17" width="8.14"/>
+    <col customWidth="1" min="18" max="18" width="5.29"/>
+    <col hidden="1" min="19" max="19" width="14.43"/>
+    <col customWidth="1" min="20" max="20" width="5.71"/>
+    <col customWidth="1" min="21" max="21" width="6.14"/>
+    <col customWidth="1" min="22" max="22" width="13.29"/>
+    <col customWidth="1" min="23" max="24" width="32.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38315,27 +38357,33 @@
       <c r="O1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="Q1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>198</v>
+      <c r="W1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>11</v>
@@ -38364,24 +38412,26 @@
       <c r="N2" s="56"/>
       <c r="O2" s="57"/>
       <c r="P2" s="59"/>
-      <c r="Q2" s="29">
-        <f t="shared" ref="Q2:Q17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2)</f>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="29">
+        <f t="shared" ref="S2:S17" si="1">SUM(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
         <v>90</v>
       </c>
-      <c r="S2" s="30">
+      <c r="U2" s="30">
         <v>14.0</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>200</v>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>20</v>
@@ -38418,19 +38468,21 @@
       <c r="N3" s="59"/>
       <c r="O3" s="57"/>
       <c r="P3" s="59"/>
-      <c r="Q3" s="29">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="29">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="S3" s="30">
+      <c r="U3" s="30">
         <v>14.0</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>200</v>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -38468,18 +38520,22 @@
         <v>181</v>
       </c>
       <c r="P4" s="35"/>
-      <c r="Q4" s="29">
+      <c r="Q4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="35"/>
+      <c r="S4" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="S4" s="30">
+      <c r="U4" s="30">
         <v>15.0</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="V4" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="63" t="s">
-        <v>202</v>
+      <c r="W4" s="63" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -38529,21 +38585,25 @@
         <v>181</v>
       </c>
       <c r="P5" s="59"/>
-      <c r="Q5" s="29">
+      <c r="Q5" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="59"/>
+      <c r="S5" s="29">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="S5" s="30">
+      <c r="U5" s="30">
         <v>16.0</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="V5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="V5" s="63" t="s">
-        <v>204</v>
+      <c r="W5" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="X5" s="63" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -38563,19 +38623,19 @@
         <v>10.0</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G6" s="61">
         <v>25.0</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I6" s="61">
         <v>20.0</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K6" s="61">
         <v>15.0</v>
@@ -38589,19 +38649,23 @@
         <v>181</v>
       </c>
       <c r="P6" s="35"/>
-      <c r="Q6" s="29">
+      <c r="Q6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="35"/>
+      <c r="S6" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S6" s="30">
+      <c r="U6" s="30">
         <v>17.0</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="V6" s="63" t="s">
-        <v>209</v>
+      <c r="V6" s="31"/>
+      <c r="W6" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="X6" s="63" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
@@ -38609,13 +38673,13 @@
         <v>149</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C7" s="54">
         <v>30.0</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E7" s="54">
         <v>30.0</v>
@@ -38627,12 +38691,12 @@
         <v>20.0</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="68">
+        <v>214</v>
+      </c>
+      <c r="I7" s="55">
         <v>20.0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="54"/>
       <c r="L7" s="59" t="s">
         <v>181</v>
@@ -38647,19 +38711,23 @@
         <v>181</v>
       </c>
       <c r="P7" s="59"/>
-      <c r="Q7" s="29">
+      <c r="Q7" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R7" s="59"/>
+      <c r="S7" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S7" s="30">
+      <c r="U7" s="30">
         <v>18.0</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="63" t="s">
-        <v>214</v>
+      <c r="V7" s="31"/>
+      <c r="W7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="X7" s="63" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -38678,79 +38746,81 @@
       <c r="E8" s="61">
         <v>15.0</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="71">
+      <c r="F8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="68">
         <v>15.0</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="H8" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="61">
         <v>15.0</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="46">
-        <v>10.0</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="M8" s="71">
-        <v>15.0</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="71">
-        <v>15.0</v>
-      </c>
       <c r="P8" s="35"/>
-      <c r="Q8" s="29">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S8" s="30">
+        <v>100</v>
+      </c>
+      <c r="U8" s="30">
         <v>19.0</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="63" t="s">
+      <c r="V8" s="31"/>
+      <c r="W8" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="V8" s="63" t="s">
-        <v>217</v>
+      <c r="X8" s="63" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="57">
-        <v>30.0</v>
-      </c>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="57">
-        <v>30.0</v>
-      </c>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="54">
         <v>15.0</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>181</v>
+      <c r="H9" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="54">
+        <v>15.0</v>
       </c>
       <c r="J9" s="59" t="s">
         <v>181</v>
@@ -38771,82 +38841,88 @@
         <v>181</v>
       </c>
       <c r="P9" s="59"/>
-      <c r="Q9" s="29">
+      <c r="Q9" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R9" s="59"/>
+      <c r="S9" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="S9" s="30">
+      <c r="U9" s="30">
         <v>20.0</v>
       </c>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="V9" s="63" t="s">
-        <v>219</v>
+      <c r="V9" s="31"/>
+      <c r="W9" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="X9" s="63" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="46">
-        <v>25.0</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="D10" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="61">
+        <v>15.0</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="61">
+        <v>15.0</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" s="61">
+        <v>15.0</v>
+      </c>
+      <c r="N10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="29">
+      <c r="O10" s="61">
+        <v>30.0</v>
+      </c>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="29">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="S10" s="30">
+        <v>140</v>
+      </c>
+      <c r="U10" s="30">
         <v>21.0</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="V10" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="W10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="X10" s="32" t="s">
         <v>157</v>
       </c>
     </row>
@@ -38875,13 +38951,17 @@
       <c r="H11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="57">
-        <v>35.0</v>
-      </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="68"/>
+      <c r="I11" s="58">
+        <v>30.0</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="73">
+        <v>15.0</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="59" t="s">
         <v>181</v>
       </c>
@@ -38889,19 +38969,23 @@
         <v>181</v>
       </c>
       <c r="P11" s="59"/>
-      <c r="Q11" s="29">
+      <c r="Q11" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="59"/>
+      <c r="S11" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S11" s="30">
+        <v>100</v>
+      </c>
+      <c r="U11" s="30">
         <v>22.0</v>
       </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="V11" s="63" t="s">
-        <v>222</v>
+      <c r="V11" s="31"/>
+      <c r="W11" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="X11" s="63" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -38951,21 +39035,25 @@
         <v>181</v>
       </c>
       <c r="P12" s="35"/>
-      <c r="Q12" s="29">
+      <c r="Q12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S12" s="30">
+      <c r="U12" s="30">
         <v>23.0</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="V12" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="W12" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="V12" s="63" t="s">
-        <v>223</v>
+      <c r="X12" s="63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -38990,16 +39078,16 @@
       <c r="G13" s="57">
         <v>25.0</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="75">
         <v>25.0</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="75">
         <v>15.0</v>
       </c>
       <c r="L13" s="59" t="s">
@@ -39015,21 +39103,25 @@
         <v>181</v>
       </c>
       <c r="P13" s="59"/>
-      <c r="Q13" s="29">
+      <c r="Q13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13" s="59"/>
+      <c r="S13" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S13" s="30">
+      <c r="U13" s="30">
         <v>24.0</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="V13" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="U13" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="V13" s="63" t="s">
-        <v>225</v>
+      <c r="W13" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="X13" s="63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14">
@@ -39075,19 +39167,23 @@
         <v>181</v>
       </c>
       <c r="P14" s="35"/>
-      <c r="Q14" s="29">
+      <c r="Q14" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="29">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S14" s="30">
+      <c r="U14" s="30">
         <v>25.0</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="V14" s="63" t="s">
-        <v>227</v>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="X14" s="63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -39137,15 +39233,19 @@
         <v>181</v>
       </c>
       <c r="P15" s="59"/>
-      <c r="Q15" s="29">
+      <c r="Q15" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="59"/>
+      <c r="S15" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="S15" s="30">
+      <c r="U15" s="30">
         <v>26.0</v>
       </c>
-      <c r="V15" s="63" t="s">
-        <v>228</v>
+      <c r="X15" s="63" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="16">
@@ -39195,20 +39295,24 @@
         <v>181</v>
       </c>
       <c r="P16" s="37"/>
-      <c r="Q16" s="29">
+      <c r="Q16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R16" s="37"/>
+      <c r="S16" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16" s="30">
+      <c r="U16" s="30">
         <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>237</v>
       </c>
       <c r="C17" s="38">
         <v>45.0</v>
@@ -39250,11 +39354,15 @@
         <v>181</v>
       </c>
       <c r="P17" s="37"/>
-      <c r="Q17" s="29">
+      <c r="Q17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R17" s="37"/>
+      <c r="S17" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="S17" s="30">
+      <c r="U17" s="30">
         <v>28.0</v>
       </c>
     </row>
@@ -39263,52 +39371,58 @@
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
       <c r="U19" s="31"/>
-      <c r="V19" s="31" t="s">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="79">
         <v>15.0</v>
       </c>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
       <c r="U20" s="31"/>
-      <c r="V20" s="31" t="s">
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="Z20" s="31" t="s">
+      <c r="AB20" s="31" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="79">
         <v>20.0</v>
       </c>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
       <c r="U21" s="31"/>
-      <c r="V21" s="31" t="s">
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
+      <c r="D22" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="79">
+        <v>15.0</v>
+      </c>
       <c r="U22" s="31"/>
-      <c r="V22" s="31" t="s">
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31" t="s">
         <v>178</v>
       </c>
     </row>
@@ -39317,13 +39431,13 @@
     </row>
     <row r="24">
       <c r="A24" s="4"/>
-      <c r="U24" s="50" t="s">
+      <c r="W24" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
-      <c r="U25" s="51" t="s">
+      <c r="W25" s="51" t="s">
         <v>195</v>
       </c>
     </row>
@@ -39332,7 +39446,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4"/>
-      <c r="U27" s="52" t="s">
+      <c r="W27" s="52" t="s">
         <v>196</v>
       </c>
     </row>
@@ -41662,24 +41776,24 @@
       <c r="A802" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q17">
+  <conditionalFormatting sqref="S2:S17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>80</formula>
       <formula>95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q17">
+  <conditionalFormatting sqref="S2:S17">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q17">
+  <conditionalFormatting sqref="S2:S17">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>95</formula>
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q17">
+  <conditionalFormatting sqref="S2:S17">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>80</formula>
     </cfRule>
@@ -41783,7 +41897,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>11</v>
@@ -41821,15 +41935,15 @@
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>20</v>
@@ -41871,10 +41985,10 @@
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -41915,7 +42029,7 @@
         <v>136</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -41946,16 +42060,16 @@
       <c r="I5" s="57">
         <v>10.0</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="82">
         <v>15.0</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="75">
         <v>10.0</v>
       </c>
       <c r="N5" s="59" t="s">
@@ -41975,8 +42089,8 @@
       <c r="T5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="81" t="s">
-        <v>233</v>
+      <c r="U5" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>183</v>
@@ -41986,16 +42100,16 @@
       <c r="A6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="85">
         <v>20.0</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="85">
         <v>20.0</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -42038,7 +42152,7 @@
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V6" s="31" t="s">
         <v>142</v>
@@ -42060,16 +42174,16 @@
       <c r="E7" s="57">
         <v>35.0</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="75">
         <v>20.0</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="68"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="59" t="s">
         <v>181</v>
       </c>
@@ -42092,7 +42206,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>145</v>
@@ -42123,7 +42237,7 @@
       <c r="H8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="86">
         <v>25.0</v>
       </c>
       <c r="J8" s="47" t="s">
@@ -42154,7 +42268,7 @@
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>148</v>
@@ -42176,10 +42290,10 @@
       <c r="E9" s="57">
         <v>30.0</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="75">
         <v>15.0</v>
       </c>
       <c r="H9" s="59" t="s">
@@ -42216,7 +42330,7 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>151</v>
@@ -42226,14 +42340,14 @@
       <c r="A10" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>220</v>
+      <c r="D10" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -42314,10 +42428,10 @@
       <c r="I11" s="57">
         <v>35.0</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="68"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="59" t="s">
         <v>181</v>
       </c>
@@ -42334,7 +42448,7 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>154</v>
@@ -42398,7 +42512,7 @@
         <v>162</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="V12" s="31" t="s">
         <v>160</v>
@@ -42432,10 +42546,10 @@
       <c r="I13" s="57">
         <v>15.0</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="75">
         <v>15.0</v>
       </c>
       <c r="L13" s="59" t="s">
@@ -42462,7 +42576,7 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>164</v>
@@ -42520,7 +42634,7 @@
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="V14" s="31" t="s">
         <v>168</v>
@@ -42581,7 +42695,7 @@
         <v>26.0</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>171</v>
@@ -42711,10 +42825,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="79">
         <v>15.0</v>
       </c>
       <c r="S20" s="31"/>
@@ -42729,10 +42843,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="79">
         <v>20.0</v>
       </c>
       <c r="S21" s="31"/>
@@ -42744,10 +42858,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="79">
         <v>20.0</v>
       </c>
       <c r="H22" s="59"/>

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="254">
   <si>
     <t>Thema</t>
   </si>
@@ -764,6 +764,12 @@
     <t>D8</t>
   </si>
   <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Build1: Ant</t>
+  </si>
+  <si>
     <t>K10: Multithreading</t>
   </si>
   <si>
@@ -840,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -942,7 +948,7 @@
     <font>
       <b/>
       <u/>
-      <color theme="1"/>
+      <color rgb="FF6AA84F"/>
       <name val="Helvetica Neue"/>
       <scheme val="minor"/>
     </font>
@@ -976,6 +982,13 @@
       <u/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1161,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1393,6 +1406,9 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1420,8 +1436,14 @@
     <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -38303,7 +38325,7 @@
     <col customWidth="1" min="15" max="15" width="8.14"/>
     <col customWidth="1" hidden="1" min="16" max="16" width="12.43"/>
     <col customWidth="1" hidden="1" min="17" max="17" width="8.14"/>
-    <col customWidth="1" min="18" max="18" width="5.29"/>
+    <col customWidth="1" hidden="1" min="18" max="18" width="5.29"/>
     <col hidden="1" min="19" max="19" width="14.43"/>
     <col customWidth="1" min="20" max="20" width="5.71"/>
     <col customWidth="1" min="21" max="21" width="6.14"/>
@@ -38867,7 +38889,7 @@
       <c r="B10" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="68">
         <v>45.0</v>
       </c>
       <c r="D10" s="69" t="s">
@@ -38930,36 +38952,32 @@
       <c r="A11" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="57">
-        <v>10.0</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="55">
         <v>25.0</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="H11" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="58">
-        <v>30.0</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="73">
-        <v>15.0</v>
-      </c>
+      <c r="I11" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="74"/>
       <c r="M11" s="75"/>
       <c r="N11" s="59" t="s">
@@ -38992,42 +39010,38 @@
       <c r="A12" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="61">
+        <v>15.0</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="46">
-        <v>30.0</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="E12" s="61">
         <v>20.0</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="61">
+        <v>25.0</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="61">
         <v>20.0</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="46">
-        <v>10.0</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>181</v>
-      </c>
+      <c r="K12" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="35" t="s">
         <v>181</v>
       </c>
@@ -39041,7 +39055,7 @@
       <c r="R12" s="35"/>
       <c r="S12" s="29">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U12" s="30">
         <v>23.0</v>
@@ -39049,7 +39063,7 @@
       <c r="V12" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="W12" s="31" t="s">
+      <c r="W12" s="63" t="s">
         <v>190</v>
       </c>
       <c r="X12" s="63" t="s">
@@ -39060,42 +39074,38 @@
       <c r="A13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="57">
-        <v>10.0</v>
-      </c>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="54">
+        <v>20.0</v>
+      </c>
+      <c r="D13" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="55">
         <v>25.0</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="57">
-        <v>25.0</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="75">
-        <v>25.0</v>
-      </c>
-      <c r="J13" s="76" t="s">
+      <c r="G13" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="H13" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="75">
+      <c r="I13" s="54">
+        <v>35.0</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="55">
         <v>15.0</v>
       </c>
-      <c r="L13" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>181</v>
-      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="59" t="s">
         <v>181</v>
       </c>
@@ -39109,7 +39119,7 @@
       <c r="R13" s="59"/>
       <c r="S13" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="U13" s="30">
         <v>24.0</v>
@@ -39117,7 +39127,7 @@
       <c r="V13" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="W13" s="63" t="s">
         <v>231</v>
       </c>
       <c r="X13" s="63" t="s">
@@ -39128,29 +39138,29 @@
       <c r="A14" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="B14" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="61">
         <v>25.0</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="61">
+        <v>25.0</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="68">
         <v>20.0</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="46">
-        <v>20.0</v>
+      <c r="I14" s="61">
+        <v>35.0</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="46"/>
@@ -39173,40 +39183,40 @@
       <c r="R14" s="35"/>
       <c r="S14" s="29">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="U14" s="30">
         <v>25.0</v>
       </c>
       <c r="V14" s="31"/>
-      <c r="W14" s="31" t="s">
-        <v>233</v>
+      <c r="W14" s="63" t="s">
+        <v>235</v>
       </c>
       <c r="X14" s="63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="77">
+        <v>20.0</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>14</v>
       </c>
       <c r="E15" s="57">
         <v>20.0</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>181</v>
+      <c r="F15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="57">
+        <v>20.0</v>
       </c>
       <c r="H15" s="59" t="s">
         <v>181</v>
@@ -39239,13 +39249,13 @@
       <c r="R15" s="59"/>
       <c r="S15" s="29">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="U15" s="30">
         <v>26.0</v>
       </c>
       <c r="X15" s="63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16">
@@ -39309,10 +39319,10 @@
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>239</v>
       </c>
       <c r="C17" s="38">
         <v>45.0</v>
@@ -39380,10 +39390,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="80">
         <v>15.0</v>
       </c>
       <c r="U20" s="31"/>
@@ -39398,10 +39408,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="80">
         <v>20.0</v>
       </c>
       <c r="U21" s="31"/>
@@ -39413,10 +39423,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="D22" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="79">
+      <c r="D22" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="80">
         <v>15.0</v>
       </c>
       <c r="U22" s="31"/>
@@ -41943,7 +41953,7 @@
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>20</v>
@@ -42029,7 +42039,7 @@
         <v>136</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
@@ -42060,10 +42070,10 @@
       <c r="I5" s="57">
         <v>10.0</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="83">
         <v>15.0</v>
       </c>
       <c r="L5" s="74" t="s">
@@ -42089,8 +42099,8 @@
       <c r="T5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="83" t="s">
-        <v>241</v>
+      <c r="U5" s="84" t="s">
+        <v>243</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>183</v>
@@ -42100,16 +42110,16 @@
       <c r="A6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="86">
         <v>20.0</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="86">
         <v>20.0</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -42152,7 +42162,7 @@
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="V6" s="31" t="s">
         <v>142</v>
@@ -42174,15 +42184,15 @@
       <c r="E7" s="57">
         <v>35.0</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="87" t="s">
         <v>49</v>
       </c>
       <c r="G7" s="75">
         <v>20.0</v>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="75"/>
       <c r="L7" s="59" t="s">
         <v>181</v>
@@ -42206,7 +42216,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>145</v>
@@ -42237,7 +42247,7 @@
       <c r="H8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="88">
         <v>25.0</v>
       </c>
       <c r="J8" s="47" t="s">
@@ -42268,7 +42278,7 @@
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>148</v>
@@ -42330,7 +42340,7 @@
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>151</v>
@@ -42340,14 +42350,14 @@
       <c r="A10" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="89" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="34">
         <v>45.0</v>
       </c>
-      <c r="D10" s="87" t="s">
-        <v>246</v>
+      <c r="D10" s="90" t="s">
+        <v>248</v>
       </c>
       <c r="E10" s="46">
         <v>25.0</v>
@@ -42428,7 +42438,7 @@
       <c r="I11" s="57">
         <v>35.0</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="75"/>
       <c r="L11" s="74"/>
       <c r="M11" s="75"/>
@@ -42448,7 +42458,7 @@
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>154</v>
@@ -42512,7 +42522,7 @@
         <v>162</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="V12" s="31" t="s">
         <v>160</v>
@@ -42546,7 +42556,7 @@
       <c r="I13" s="57">
         <v>15.0</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="87" t="s">
         <v>89</v>
       </c>
       <c r="K13" s="75">
@@ -42576,7 +42586,7 @@
         <v>166</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>164</v>
@@ -42634,7 +42644,7 @@
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V14" s="31" t="s">
         <v>168</v>
@@ -42695,7 +42705,7 @@
         <v>26.0</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>171</v>
@@ -42825,10 +42835,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="80">
         <v>15.0</v>
       </c>
       <c r="S20" s="31"/>
@@ -42843,10 +42853,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="80">
         <v>20.0</v>
       </c>
       <c r="S21" s="31"/>
@@ -42858,10 +42868,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="80">
         <v>20.0</v>
       </c>
       <c r="H22" s="59"/>

--- a/planung_pm.xlsx
+++ b/planung_pm.xlsx
@@ -782,7 +782,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>E2 (tbd)</t>
+    <t>E2 (11.07.)</t>
   </si>
   <si>
     <t>Testcoverage, BDD</t>
@@ -1403,11 +1403,11 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -39204,19 +39204,17 @@
         <v>87</v>
       </c>
       <c r="C15" s="77">
-        <v>20.0</v>
-      </c>
-      <c r="D15" s="56" t="s">
+        <v>25.0</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="57">
-        <v>20.0</v>
+      <c r="G15" s="54">
+        <v>35.0</v>
       </c>
       <c r="H15" s="59" t="s">
         <v>181</v>
